--- a/학습자료/단답형/객관식+단답형_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식+단답형_영어_유의어_Day01.xlsx
@@ -1109,14 +1109,14 @@
       <c r="A57" t="inlineStr">
         <is>
           <t>in conjunction with
-1. 비참한
+1. ~와 함께
 2. 무정한, 냉담한
-3. ~와 함께</t>
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1124,14 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>in combination with
-1. ~와 비교하여
-2. ~와 함께
-3. 설득력 있는</t>
+1. ~와 함께
+2. 설득력 있는
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -1139,9 +1139,9 @@
       <c r="A59" t="inlineStr">
         <is>
           <t>in company with
-1. ~의 경우에
+1. 비참한
 2. ~와 함께
-3. 남을 속이는, 기만적인</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1169,8 +1169,8 @@
       <c r="A61" t="inlineStr">
         <is>
           <t>alongside
-1. 널리 퍼진, 만연한
-2. 화나게 하다
+1. 비참한
+2. 남을 속이는, 기만적인
 3. ~와 함께</t>
         </is>
       </c>
@@ -1184,14 +1184,14 @@
       <c r="A62" t="inlineStr">
         <is>
           <t>along with
-1. ~와 함께
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
+1. 무정한, 냉담한
+2. ~와 함께
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1, ~와 함께</t>
+          <t>2, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
           <t>in comparison with
 1. 널리 퍼진, 만연한
 2. ~와 비교하여
-3. 설득력 있는</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1214,8 +1214,8 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>(as) compared with[to]
-1. ~의 경우에
-2. 비참한
+1. ~와 함께
+2. 무정한, 냉담한
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -1229,8 +1229,8 @@
       <c r="A65" t="inlineStr">
         <is>
           <t>as against
-1. ~와 함께
-2. 비참한
+1. 화나게 하다
+2. 널리 퍼진, 만연한
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -1244,8 +1244,8 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>by[in] contrast
-1. ~대신에
-2. 무정한, 냉담한
+1. 남을 속이는, 기만적인
+2. 설득력 있는
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="A67" t="inlineStr">
         <is>
           <t>in place of
-1. ~와 비교하여
-2. ~대신에
-3. 비참한</t>
+1. ~대신에
+2. ~의 경우에
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2, ~대신에</t>
+          <t>1, ~대신에</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="A68" t="inlineStr">
         <is>
           <t>instead (of)
-1. 무정한, 냉담한
+1. ~와 함께
 2. ~의 경우에
 3. ~대신에</t>
         </is>
@@ -1290,13 +1290,13 @@
         <is>
           <t>on behalf of
 1. 설득력 있는
-2. 무정한, 냉담한
-3. ~대신에</t>
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1304,14 @@
       <c r="A70" t="inlineStr">
         <is>
           <t>in substitute for
-1. 설득력 있는
-2. 비참한
-3. ~대신에</t>
+1. ~와 함께
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
         <is>
           <t>in lieu of
 1. 남을 속이는, 기만적인
-2. ~와 함께
+2. ~와 비교하여
 3. ~대신에</t>
         </is>
       </c>
@@ -1334,14 +1334,14 @@
       <c r="A72" t="inlineStr">
         <is>
           <t>in case of
-1. ~의 경우에
-2. 무정한, 냉담한
+1. 설득력 있는
+2. ~의 경우에
 3. 화나게 하다</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>2, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1349,14 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>in the event of
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
+1. ~와 함께
+2. ~의 경우에
+3. 비참한</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>2, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1364,14 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>on the occasion (of)
-1. ~의 경우에
-2. ~와 함께
-3. 설득력 있는</t>
+1. ~대신에
+2. 화나게 하다
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>3, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -1379,9 +1379,9 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>in time (of)
-1. 화나게 하다
+1. ~와 비교하여
 2. ~의 경우에
-3. 비참한</t>
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1394,389 +1394,389 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>pervasive
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ubiquitous
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>prevalent
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>omnipresent
+1. 널리 퍼진, 만연한
+2. 비참한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>immanent
+1. 무정한, 냉담한
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>current
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>prevailing
 1. ~대신에
 2. 무정한, 냉담한
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ubiquitous
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rife
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>deceptive
+1. ~대신에
+2. 화나게 하다
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>deceitful
+1. 남을 속이는, 기만적인
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>delusive
+1. 설득력 있는
+2. 남을 속이는, 기만적인
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>devious
+1. 남을 속이는, 기만적인
+2. 무정한, 냉담한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 남을 속이는, 기만적인
+2. ~의 경우에
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>persuasive
+1. 비참한
+2. 설득력 있는
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>convincing
+1. 무정한, 냉담한
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>compelling
 1. 널리 퍼진, 만연한
-2. ~의 경우에
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>prevalent
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cogent
 1. 비참한
-2. 널리 퍼진, 만연한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>omnipresent
-1. 설득력 있는
-2. ~와 비교하여
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>immanent
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>disastrous
+1. ~와 비교하여
+2. 화나게 하다
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>tragic
 1. ~의 경우에
 2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>current
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>miserable
 1. 남을 속이는, 기만적인
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 비참한
+2. ~의 경우에
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>calamitous
+1. 비참한
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~의 경우에
 2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>prevailing
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vex
 1. ~대신에
-2. 널리 퍼진, 만연한
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>rife
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>deceptive
-1. ~와 함께
-2. ~의 경우에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>deceitful
-1. ~대신에
-2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>delusive
-1. 남을 속이는, 기만적인
-2. ~대신에
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>devious
+2. 설득력 있는
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>annoy
 1. ~의 경우에
-2. 설득력 있는
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>fraudulent
-1. ~와 비교하여
-2. 남을 속이는, 기만적인
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>persuasive
-1. 무정한, 냉담한
-2. ~와 비교하여
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>convincing
-1. 설득력 있는
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>compelling
-1. ~의 경우에
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>cogent
-1. 널리 퍼진, 만연한
-2. 설득력 있는
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>disastrous
-1. 설득력 있는
 2. 화나게 하다
 3. 비참한</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>tragic
-1. 비참한
-2. ~대신에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>miserable
-1. 비참한
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 남을 속이는, 기만적인
-2. 비참한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>calamitous
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>infuriate
 1. ~와 함께
 2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. 비참한
-2. ~대신에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>vex
-1. 화나게 하다
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>annoy
-1. 화나게 하다
-2. ~와 함께
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>infuriate
-1. 화나게 하다
-2. 무정한, 냉담한
-3. ~의 경우에</t>
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1, 화나게 하다</t>
+          <t>3, 화나게 하다</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       <c r="A102" t="inlineStr">
         <is>
           <t>displease
-1. 무정한, 냉담한
+1. ~의 경우에
 2. 널리 퍼진, 만연한
 3. 화나게 하다</t>
         </is>
@@ -1799,14 +1799,14 @@
       <c r="A103" t="inlineStr">
         <is>
           <t>exasperate
-1. 화나게 하다
-2. 설득력 있는
-3. ~대신에</t>
+1. 널리 퍼진, 만연한
+2. ~와 함께
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1, 화나게 하다</t>
+          <t>3, 화나게 하다</t>
         </is>
       </c>
     </row>
@@ -1814,14 +1814,14 @@
       <c r="A104" t="inlineStr">
         <is>
           <t>callous
-1. 설득력 있는
-2. 무정한, 냉담한
-3. ~와 함께</t>
+1. ~와 함께
+2. 설득력 있는
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2, 무정한, 냉담한</t>
+          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1829,14 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>cruel
-1. ~와 비교하여
-2. ~대신에
-3. 무정한, 냉담한</t>
+1. 비참한
+2. 무정한, 냉담한
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>2, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
           <t>pitiless
 1. 무정한, 냉담한
 2. ~대신에
-3. ~의 경우에</t>
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1859,44 +1859,44 @@
       <c r="A107" t="inlineStr">
         <is>
           <t>ruthless
+1. 무정한, 냉담한
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>uncharitable
+1. 비참한
+2. 무정한, 냉담한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>inexorable
 1. ~와 함께
 2. 무정한, 냉담한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>uncharitable
-1. ~와 비교하여
-2. 널리 퍼진, 만연한
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>inexorable
-1. 설득력 있는
-2. ~의 경우에
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1904,14 +1904,14 @@
       <c r="A110" t="inlineStr">
         <is>
           <t>relentless
-1. 널리 퍼진, 만연한
-2. 비참한
-3. 무정한, 냉담한</t>
+1. 무정한, 냉담한
+2. ~의 경우에
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="A111" t="inlineStr">
         <is>
           <t>merciless
-1. ~대신에
+1. 널리 퍼진, 만연한
 2. ~와 함께
 3. 무정한, 냉담한</t>
         </is>

--- a/학습자료/단답형/객관식+단답형_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식+단답형_영어_유의어_Day01.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>in conjunction with</t>
+          <t>in conjunction with*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>in combination with</t>
+          <t>in combination with*</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>in comparison with</t>
+          <t>in comparison with*</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>in place of</t>
+          <t>in place of*</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>in case of</t>
+          <t>in case of*</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pervasive</t>
+          <t>pervasive*</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ubiquitous</t>
+          <t>ubiquitous*</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prevalent</t>
+          <t>prevalent*</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>deceptive</t>
+          <t>deceptive*</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>persuasive</t>
+          <t>persuasive*</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>disastrous</t>
+          <t>disastrous*</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vex</t>
+          <t>vex*</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>annoy</t>
+          <t>annoy*</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>callous</t>
+          <t>callous*</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1108,282 +1108,282 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>in conjunction with
+          <t>in conjunction with*
+1. ~대신에
+2. 무정한, 냉담한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>in combination with*
+1. 무정한, 냉담한
+2. 설득력 있는
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>in company with
+1. 설득력 있는
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>together with
 1. ~와 함께
 2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>in combination with
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>alongside
 1. ~와 함께
+2. ~의 경우에
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>along with
+1. ~와 함께
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>in comparison with*
+1. 화나게 하다
+2. ~와 비교하여
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>(as) compared with[to]
+1. ~와 비교하여
+2. ~의 경우에
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>as against
+1. 설득력 있는
+2. ~와 비교하여
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>by[in] contrast
+1. ~의 경우에
+2. ~와 함께
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>in place of*
+1. 비참한
+2. ~대신에
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>instead (of)
+1. ~대신에
+2. ~와 비교하여
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>on behalf of
+1. 비참한
 2. 설득력 있는
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>in company with
-1. 비참한
-2. ~와 함께
 3. ~대신에</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>together with
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>in substitute for
 1. ~대신에
 2. ~와 함께
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>alongside
-1. 비참한
-2. 남을 속이는, 기만적인
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>3, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>along with
-1. 무정한, 냉담한
-2. ~와 함께
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>in comparison with
-1. 널리 퍼진, 만연한
-2. ~와 비교하여
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>(as) compared with[to]
-1. ~와 함께
-2. 무정한, 냉담한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>as against
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>by[in] contrast
-1. 남을 속이는, 기만적인
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>in place of
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>in lieu of
 1. ~대신에
 2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>1, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>instead (of)
-1. ~와 함께
-2. ~의 경우에
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>on behalf of
-1. 설득력 있는
-2. ~대신에
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>in substitute for
-1. ~와 함께
-2. ~대신에
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>in lieu of
-1. 남을 속이는, 기만적인
-2. ~와 비교하여
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>in case of
-1. 설득력 있는
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>in the event of
-1. ~와 함께
-2. ~의 경우에
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>on the occasion (of)
-1. ~대신에
-2. 화나게 하다
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>3, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>in time (of)
+          <t>in case of*
 1. ~와 비교하여
 2. ~의 경우에
 3. 설득력 있는</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>in the event of
+1. ~의 경우에
+2. ~와 함께
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>on the occasion (of)
+1. 설득력 있는
+2. ~와 비교하여
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>in time (of)
+1. ~대신에
+2. ~의 경우에
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>2, ~의 경우에</t>
@@ -1393,45 +1393,45 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>pervasive
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~의 경우에</t>
+          <t>pervasive*
+1. ~와 함께
+2. 무정한, 냉담한
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ubiquitous
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
+          <t>ubiquitous*
+1. 널리 퍼진, 만연한
+2. ~와 비교하여
+3. 남을 속이는, 기만적인</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>prevalent
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~의 경우에</t>
+          <t>prevalent*
+1. ~와 함께
+2. 화나게 하다
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -1439,44 +1439,44 @@
       <c r="A79" t="inlineStr">
         <is>
           <t>omnipresent
-1. 널리 퍼진, 만연한
-2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>immanent
-1. 무정한, 냉담한
-2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>current
 1. 무정한, 냉담한
 2. 남을 속이는, 기만적인
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>immanent
+1. 널리 퍼진, 만연한
+2. 설득력 있는
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>current
+1. ~의 경우에
+2. 널리 퍼진, 만연한
+3. ~대신에</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1484,14 @@
       <c r="A82" t="inlineStr">
         <is>
           <t>prevailing
-1. ~대신에
-2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
+1. 무정한, 냉담한
+2. 널리 퍼진, 만연한
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -1499,21 +1499,21 @@
       <c r="A83" t="inlineStr">
         <is>
           <t>rife
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. 비참한</t>
+1. 널리 퍼진, 만연한
+2. 비참한
+3. ~대신에</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>deceptive
+          <t>deceptive*
 1. ~대신에
 2. 화나게 하다
 3. 남을 속이는, 기만적인</t>
@@ -1529,74 +1529,74 @@
       <c r="A85" t="inlineStr">
         <is>
           <t>deceitful
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>delusive
 1. 남을 속이는, 기만적인
 2. 무정한, 냉담한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>delusive
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>devious
+1. ~와 비교하여
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 화나게 하다
+2. 남을 속이는, 기만적인
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>persuasive*
 1. 설득력 있는
 2. 남을 속이는, 기만적인
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>devious
-1. 남을 속이는, 기만적인
-2. 무정한, 냉담한
 3. 비참한</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>fraudulent
-1. 남을 속이는, 기만적인
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>persuasive
-1. 비참한
-2. 설득력 있는
-3. ~대신에</t>
-        </is>
-      </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2, 설득력 있는</t>
+          <t>1, 설득력 있는</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>convincing
-1. 무정한, 냉담한
-2. 설득력 있는
-3. ~와 비교하여</t>
+1. 화나게 하다
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2, 설득력 있는</t>
+          <t>3, 설득력 있는</t>
         </is>
       </c>
     </row>
@@ -1619,203 +1619,203 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>compelling
-1. 널리 퍼진, 만연한
+1. 설득력 있는
+2. ~와 비교하여
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>cogent
+1. 화나게 하다
 2. 남을 속이는, 기만적인
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>cogent
-1. 비참한
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>disastrous
-1. ~와 비교하여
+          <t>disastrous*
+1. 비참한
+2. 무정한, 냉담한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>tragic
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>miserable
+1. 널리 퍼진, 만연한
+2. 비참한
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 비참한
+2. 무정한, 냉담한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>calamitous
+1. ~와 함께
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~의 경우에
+2. 비참한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vex*
+1. 무정한, 냉담한
 2. 화나게 하다
 3. 비참한</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>tragic
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>miserable
-1. 남을 속이는, 기만적인
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 비참한
-2. ~의 경우에
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>calamitous
-1. 비참한
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>vex
-1. ~대신에
-2. 설득력 있는
-3. 화나게 하다</t>
-        </is>
-      </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3, 화나게 하다</t>
+          <t>2, 화나게 하다</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>annoy
-1. ~의 경우에
-2. 화나게 하다
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>infuriate
-1. ~와 함께
-2. 비참한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>displease
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>exasperate
+          <t>annoy*
 1. 널리 퍼진, 만연한
 2. ~와 함께
 3. 화나게 하다</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>infuriate
+1. 무정한, 냉담한
+2. 화나게 하다
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>displease
+1. 화나게 하다
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>exasperate
+1. 널리 퍼진, 만연한
+2. 화나게 하다
+3. 비참한</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3, 화나게 하다</t>
+          <t>2, 화나게 하다</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>callous
-1. ~와 함께
-2. 설득력 있는
+          <t>callous*
+1. ~대신에
+2. ~와 함께
 3. 무정한, 냉담한</t>
         </is>
       </c>
@@ -1829,44 +1829,44 @@
       <c r="A105" t="inlineStr">
         <is>
           <t>cruel
+1. 설득력 있는
+2. 무정한, 냉담한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>pitiless
+1. 비참한
+2. ~와 비교하여
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ruthless
 1. 비참한
 2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>pitiless
-1. 무정한, 냉담한
-2. ~대신에
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>1, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ruthless
-1. 무정한, 냉담한
-2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1874,9 +1874,9 @@
       <c r="A108" t="inlineStr">
         <is>
           <t>uncharitable
-1. 비참한
+1. ~와 비교하여
 2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1889,9 +1889,9 @@
       <c r="A109" t="inlineStr">
         <is>
           <t>inexorable
-1. ~와 함께
+1. 설득력 있는
 2. 무정한, 냉담한
-3. ~의 경우에</t>
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1920,7 +1920,7 @@
         <is>
           <t>merciless
 1. 널리 퍼진, 만연한
-2. ~와 함께
+2. 남을 속이는, 기만적인
 3. 무정한, 냉담한</t>
         </is>
       </c>
